--- a/Anforderungen.xlsx
+++ b/Anforderungen.xlsx
@@ -476,7 +476,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="A1:C18"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Anforderungen.xlsx
+++ b/Anforderungen.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="42">
   <si>
     <t>Feature</t>
   </si>
@@ -120,6 +120,27 @@
   </si>
   <si>
     <t>Datenschutz</t>
+  </si>
+  <si>
+    <t>Userstory</t>
+  </si>
+  <si>
+    <t>Bearbeiter</t>
+  </si>
+  <si>
+    <t>Steffen</t>
+  </si>
+  <si>
+    <t>Matthias</t>
+  </si>
+  <si>
+    <t>Christine</t>
+  </si>
+  <si>
+    <t>Cihan</t>
+  </si>
+  <si>
+    <t>Julian</t>
   </si>
 </sst>
 </file>
@@ -473,20 +494,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" customWidth="1"/>
+    <col min="3" max="3" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,8 +517,14 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -507,40 +534,55 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -550,8 +592,11 @@
       <c r="C7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -561,85 +606,118 @@
       <c r="C8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -650,19 +728,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.85546875" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,69 +751,99 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Anforderungen.xlsx
+++ b/Anforderungen.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="44">
   <si>
     <t>Feature</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>Julian</t>
+  </si>
+  <si>
+    <t>Produkte melden</t>
+  </si>
+  <si>
+    <t>Benutzer melden</t>
   </si>
 </sst>
 </file>
@@ -494,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
@@ -717,6 +723,28 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
         <v>41</v>
       </c>
     </row>

--- a/Anforderungen.xlsx
+++ b/Anforderungen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Funktionale Anforderungen" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
   <si>
     <t>Feature</t>
   </si>
@@ -147,6 +147,48 @@
   </si>
   <si>
     <t>Benutzer melden</t>
+  </si>
+  <si>
+    <t>Bewerten von Nutzern im Hinblick auf Verlässlichkeit und Ablauf einer Transaktion</t>
+  </si>
+  <si>
+    <t>Persönliche Informationen eines Nutzers</t>
+  </si>
+  <si>
+    <t>Unangemessene Produkte an das Admin-Team zur Überprüfung melden</t>
+  </si>
+  <si>
+    <t>Nutzer melden, der im Verdacht steht, die Verhaltensrichtlinien nicht eingehalten zu haben</t>
+  </si>
+  <si>
+    <t>Zeigt die AGB</t>
+  </si>
+  <si>
+    <t>Grundlegende Richtlinien, an die sich die Nutzer zu halten haben um für alle Mitglieder ein positives Nutzungserlebnis zu garantieren</t>
+  </si>
+  <si>
+    <t>Rechtliche Absicherung des Entwicklerteams und der Betreiber im Haftungsfall</t>
+  </si>
+  <si>
+    <t>Als Nutzer möchte ich andere Benutzer bewerten und deren Bewertung einsehen können um eine Entscheidung bezüglich einer Transaktion mit diesem Nutzer fällen zu können</t>
+  </si>
+  <si>
+    <t>Als Nutzer möchte ich meine persönlichen Informationen angeben und die anderer Nutzer einsehen können, um schneller eine Transaktion ausführen zu können.</t>
+  </si>
+  <si>
+    <t>Als Nutzer möchte ich Produkte melden können</t>
+  </si>
+  <si>
+    <t>Als Nutzer möchte ich Benutzer melden können, um im Falle eines Verstoßes gegen den Verhaltenskodex diesen Nutzer bestrafen zu lassen, damit alle ein positives Erlebnis mit der Anwendung haben</t>
+  </si>
+  <si>
+    <t>Als Betreiber möchte ich, dass Nutzer die AGB einsehen können, um mit dem deutschen Getz konform zu sein.</t>
+  </si>
+  <si>
+    <t>Als Betreiber möchte ich einen Verhalenskodex für die Nutzer, um diesen eine Positive Nutzungserfahrung mit der Anwendung zu bieten.</t>
+  </si>
+  <si>
+    <t>Als Betreiber möchte ich einen Haftungsausschluss, um mich gegen rechtliche Klagen von Nutzern im Bezug auf die Anwendung abzusichern.</t>
   </si>
 </sst>
 </file>
@@ -502,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,6 +553,7 @@
     <col min="1" max="1" width="29.42578125" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="48.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -704,12 +747,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
       </c>
       <c r="E17" t="s">
         <v>41</v>
@@ -722,27 +771,45 @@
       <c r="B18" t="s">
         <v>5</v>
       </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
       <c r="E18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>42</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
+      <c r="C19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
       <c r="E19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>43</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
       </c>
       <c r="E20" t="s">
         <v>41</v>
@@ -758,15 +825,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.85546875" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="3" max="3" width="65.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -793,27 +860,45 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
       <c r="E2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
       <c r="E3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
       </c>
       <c r="E4" t="s">
         <v>41</v>

--- a/Anforderungen.xlsx
+++ b/Anforderungen.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Funktionale Anforderungen" sheetId="1" r:id="rId1"/>
     <sheet name="Nichtfunktionale Anforderungen" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Funktionale Anforderungen'!$A$1:$E$20</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="66">
   <si>
     <t>Feature</t>
   </si>
@@ -50,9 +53,6 @@
     <t>Statusanzeige</t>
   </si>
   <si>
-    <t>Ausleihbar, Nicht verfügbar, Ausgeliehen</t>
-  </si>
-  <si>
     <t>Restzeit</t>
   </si>
   <si>
@@ -189,6 +189,33 @@
   </si>
   <si>
     <t>Als Betreiber möchte ich einen Haftungsausschluss, um mich gegen rechtliche Klagen von Nutzern im Bezug auf die Anwendung abzusichern.</t>
+  </si>
+  <si>
+    <t>Bei jedem Gegendstand soll ein Status anzeigt werden, ob er verfügbar ist oder nicht</t>
+  </si>
+  <si>
+    <t>Als Ausleihender möchte ich eine Statusanzeige um zu erkennen ob der gewünscht Gegenstand verfügbar ist. Als Verleihender möchte ich eine Statusanzeige um Dinge die ich zurzeit selbst benötige vom Verleih auszuschließen</t>
+  </si>
+  <si>
+    <t>Aus Ausleihender möchte ich eine Restzeitanzeige um zu wissen wann ein Gegendstand wieder zum Verleih bereit steht</t>
+  </si>
+  <si>
+    <t>Bei jedem Gegendstand soll ein Feld verfügbar sein ob und wieviel Kaution verlangt wird</t>
+  </si>
+  <si>
+    <t>Aus Verleihender möchte ich für höherwertige Gegenstände eine Kaution verlangen können</t>
+  </si>
+  <si>
+    <t>Nachrichtenaustausch zwischen Verleihenden und Ausleihenden</t>
+  </si>
+  <si>
+    <t>Als Verleihender und Ausleihender möchten wir Nachrichten zur Verleihung austauschen</t>
+  </si>
+  <si>
+    <t>Die Anwendung ermöglicht den Login mit einem Facebook-Account</t>
+  </si>
+  <si>
+    <t>Als Facebook Nutzer möchte ich den Facebook-Login um mich mit meinem vorhanden Facebook Konto bei dir Anwendung zu authentifieren</t>
   </si>
 </sst>
 </file>
@@ -544,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,7 +580,7 @@
     <col min="1" max="1" width="29.42578125" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="48.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="57.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -567,15 +594,15 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -583,8 +610,9 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D2" s="2"/>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -594,8 +622,10 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -605,19 +635,23 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -627,195 +661,232 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
       <c r="E6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
-        <v>13</v>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
+      <c r="C9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="E9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
+      <c r="C10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="E10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
+      <c r="C11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
       <c r="E16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" t="s">
-        <v>52</v>
-      </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>42</v>
       </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" t="s">
-        <v>54</v>
-      </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E20"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -825,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,6 +905,7 @@
     <col min="1" max="1" width="36.85546875" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="65.28515625" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -847,116 +919,116 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" t="s">
-        <v>57</v>
-      </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Anforderungen.xlsx
+++ b/Anforderungen.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Nichtfunktionale Anforderungen" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Funktionale Anforderungen'!$A$1:$E$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Funktionale Anforderungen'!$A$1:$E$22</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="81">
   <si>
     <t>Feature</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Benutzerverwaltung</t>
   </si>
   <si>
-    <t>Eintragen was man teilen möchte, Beschreibung, Ausleihdauer</t>
-  </si>
-  <si>
     <t>Mängelbeschreibung</t>
   </si>
   <si>
@@ -191,12 +188,6 @@
     <t>Als Betreiber möchte ich einen Haftungsausschluss, um mich gegen rechtliche Klagen von Nutzern im Bezug auf die Anwendung abzusichern.</t>
   </si>
   <si>
-    <t>Bei jedem Gegendstand soll ein Status anzeigt werden, ob er verfügbar ist oder nicht</t>
-  </si>
-  <si>
-    <t>Als Ausleihender möchte ich eine Statusanzeige um zu erkennen ob der gewünscht Gegenstand verfügbar ist. Als Verleihender möchte ich eine Statusanzeige um Dinge die ich zurzeit selbst benötige vom Verleih auszuschließen</t>
-  </si>
-  <si>
     <t>Aus Ausleihender möchte ich eine Restzeitanzeige um zu wissen wann ein Gegendstand wieder zum Verleih bereit steht</t>
   </si>
   <si>
@@ -216,13 +207,67 @@
   </si>
   <si>
     <t>Als Facebook Nutzer möchte ich den Facebook-Login um mich mit meinem vorhanden Facebook Konto bei dir Anwendung zu authentifieren</t>
+  </si>
+  <si>
+    <t>Gegenstände zum Verleih freigeben</t>
+  </si>
+  <si>
+    <t>Gegenstände eintragen die man verleihen möchte. Die Gegenstände können beschrieben werden, Bilder hinzugefügt werden und eine Ausleihdauer bestimmt werden.</t>
+  </si>
+  <si>
+    <t>Gegenstand in eine Kategorie (z.B. Kleidung) einordnen</t>
+  </si>
+  <si>
+    <t>Aus einer vorgegebenen Liste von Kategorien eine Kategorie auswählen, die zu dem Gegenstand, der verliehen wird, passt.</t>
+  </si>
+  <si>
+    <t>Jeder User bekommt einen Eigenen Account in dem die wichtigsten Inos über Ihn stehen.</t>
+  </si>
+  <si>
+    <t>Bei der ersten Anmeldung muss ein Account angelegt werden, der aus Name, PWD und andere wichtige Infos besteht. Man kann sich an- und abmelden und sein Profil nachträglich bearbeiten.</t>
+  </si>
+  <si>
+    <t>Verfügbaren Gegenstände können ausgeliehen werden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ein verfügbarer Gegenstand kann zum Ausleihen ausgewählt werden. Der Ausleiher bekommt darauf hin eine Anfrage, dass diese Person diesen Gegenstand ausleihen möchte. Der Ausleiher kann die Anfrage annehmen oder ablehnen. Bei positiver bestätigung bekommt die Person die Daten des Ausleihers. </t>
+  </si>
+  <si>
+    <t>Nach einem bestimmten Gegenstand kann gesucht werden</t>
+  </si>
+  <si>
+    <t>Den Name des Gegenstands, den man ausleihen möchte, kann man in ein Suchfeld eingeben und dann danach Suchen. Gegenstände in der nähe mit ähnlichen Namen werden darauf hin angezeigt</t>
+  </si>
+  <si>
+    <t>Nach einem Benutzer kann gesucht werden</t>
+  </si>
+  <si>
+    <t>Den Namen eines Benutzer kann in ein Suchfeld eingegeben werden und anschließend danach gesucht werden. Benutzer mit ähnlichen Namen werden angezeigt. Bei Auswahl eines Benutzer, wird das Profil angezeigt.</t>
+  </si>
+  <si>
+    <t>Gegenstand Suche</t>
+  </si>
+  <si>
+    <t>Must-be</t>
+  </si>
+  <si>
+    <t>Benutzer suche</t>
+  </si>
+  <si>
+    <t>Nice-to-have</t>
+  </si>
+  <si>
+    <t>Mängel, die ein Gegenstand hat, können bei der Beschreibung des Gegenstandes eingegeben werden</t>
+  </si>
+  <si>
+    <t>Auf der Seite des Gegenstandes können vom Verleiher und Personen, die den Gegenstand kürzlich ausgeliehen haben in einem extra Feld angegeben werden.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +282,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -256,17 +308,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -569,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,299 +652,351 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s">
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s">
+      <c r="C11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s">
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s">
+      <c r="C19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s">
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s">
+    <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" t="s">
-        <v>40</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E20"/>
+  <autoFilter ref="A1:E22"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -919,116 +1029,116 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Anforderungen.xlsx
+++ b/Anforderungen.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="91">
   <si>
     <t>Feature</t>
   </si>
@@ -261,6 +261,36 @@
   </si>
   <si>
     <t>Auf der Seite des Gegenstandes können vom Verleiher und Personen, die den Gegenstand kürzlich ausgeliehen haben in einem extra Feld angegeben werden.</t>
+  </si>
+  <si>
+    <t>Das Ausleihverhältnis soll gewährleisten, das jeder etwas der Community zum ausleihen anbietet, und nicht nur von andere etwas ausleiht.</t>
+  </si>
+  <si>
+    <t>Als Nutzer möchte ich, dass alle etwas ausleihen und verleihen, damit auch ich davon profitieren kann.</t>
+  </si>
+  <si>
+    <t>Bei der Big-Date-Auswertung sollen zu erst Daten von den Benutzer gesammelt werden, um diesen anschließend gezielt Werbung zu zeigen, welche für sie interessant sein könnte. Darüber soll die Endanwendung, sowie der Implementierungsaufwand finanziert werden.</t>
+  </si>
+  <si>
+    <t>Als Nutzer möchte ich, dass mir nur Werbung gezeigt wird, die mich interessiert.</t>
+  </si>
+  <si>
+    <t>Ein premiumkonto ermöglicht es dem Nutzer die Endanwenugn frei von Werbung zu nutzen. Im Fall einer App würde das beispielsweise heißen, einen Betrag beim download zu zahlen. Bei einer Webseite müsste man sich übe rien Premiumkonto anmeldung und ebenfalls eine entsprechende Summe zahlen.</t>
+  </si>
+  <si>
+    <t>Als Nutzer möchte ich, dass wenn ich ein Premiumkonto habe, keine Werbung mehr sehe und von allen Features der Endanwenugn profitieren kann, ohne Einschränkungen.</t>
+  </si>
+  <si>
+    <t>Dem Nutzer soll es ermöglicht werden, die Oberfläche der Anwendung in unterschiedlichen Sprachen, je nach Vorliebe an zu sehen.</t>
+  </si>
+  <si>
+    <t>Als Nutzer möchte ich, dass ich die Sprache in der die Oberfläche angezeigt wird frei wählbar ist.</t>
+  </si>
+  <si>
+    <t>Die Kontaktdaten der Nutzer sollen nicht öffentlich zugänglich sein. Erst Nachdem ein Nutzer interesse an einem Produkt das zum ausleihen verfügbar ist, bekundet hat und der Anbieter das bestätigt, werden die Kontaktdaten beiden beteiligten zur verfügung gestellt.</t>
+  </si>
+  <si>
+    <t>Als Nutzer möchte ich, dass meine Daten nicht öffentlich zugänglich sind und ich entscheiden kann, welche Informationen ich frei gebe.</t>
   </si>
 </sst>
 </file>
@@ -629,7 +659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1007,7 +1037,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,56 +1116,86 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="E5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="E6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="E7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
+      <c r="C8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="E8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="E9" t="s">
         <v>37</v>

--- a/Anforderungen.xlsx
+++ b/Anforderungen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18516" windowHeight="4944"/>
   </bookViews>
   <sheets>
     <sheet name="Funktionale Anforderungen" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,13 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Funktionale Anforderungen'!$A$1:$E$22</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="94">
   <si>
     <t>Feature</t>
   </si>
@@ -291,6 +292,15 @@
   </si>
   <si>
     <t>Als Nutzer möchte ich, dass meine Daten nicht öffentlich zugänglich sind und ich entscheiden kann, welche Informationen ich frei gebe.</t>
+  </si>
+  <si>
+    <t>Die Anwendung ermöglicht den Login mit einem Google-Account</t>
+  </si>
+  <si>
+    <t>Suche nach Artikeln basierend auf Lokation</t>
+  </si>
+  <si>
+    <t>Für die zukünftige Ausleihen kann man markieren, was er vor hat auszuleihen</t>
   </si>
 </sst>
 </file>
@@ -659,19 +669,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="48.7109375" customWidth="1"/>
-    <col min="4" max="4" width="57.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" customWidth="1"/>
+    <col min="4" max="4" width="57.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -688,7 +698,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
@@ -705,7 +715,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -722,7 +732,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -739,7 +749,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -756,7 +766,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>75</v>
       </c>
@@ -773,7 +783,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>77</v>
       </c>
@@ -790,7 +800,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -807,7 +817,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -824,7 +834,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -841,7 +851,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -858,7 +868,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -875,7 +885,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -892,20 +902,22 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="D14" s="4"/>
       <c r="E14" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
@@ -918,33 +930,37 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="D16" s="4"/>
       <c r="E16" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="D17" s="4"/>
       <c r="E17" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -957,7 +973,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -974,7 +990,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -991,7 +1007,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1008,7 +1024,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1040,15 +1056,15 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="65.28515625" customWidth="1"/>
-    <col min="4" max="4" width="37.28515625" customWidth="1"/>
+    <col min="1" max="1" width="36.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="65.33203125" customWidth="1"/>
+    <col min="4" max="4" width="37.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1065,7 +1081,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1082,7 +1098,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1099,7 +1115,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1116,7 +1132,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1133,7 +1149,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1150,7 +1166,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1167,7 +1183,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>

--- a/Anforderungen.xlsx
+++ b/Anforderungen.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="97">
   <si>
     <t>Feature</t>
   </si>
@@ -301,6 +301,15 @@
   </si>
   <si>
     <t>Für die zukünftige Ausleihen kann man markieren, was er vor hat auszuleihen</t>
+  </si>
+  <si>
+    <t>Es soll die Möglichkeit geben, dass ich mit meinem Google Account mich anmelden kann.</t>
+  </si>
+  <si>
+    <t>Wenn ich was aus-/verleihen möchte, möchte ich nicht bundesweit fahren. Ich möchte nur in meiner Umgebung was aus-/verleihen.</t>
+  </si>
+  <si>
+    <t>Ich möchte nicht vergessen was ich in den kommenden Tagen/Wochen brauche, deswegen soll ich in der Lage sein dass ich die Artikel mir schon vorher merken kann.</t>
   </si>
 </sst>
 </file>
@@ -669,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D19" sqref="D18:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -912,7 +921,9 @@
       <c r="C14" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="E14" s="3" t="s">
         <v>38</v>
       </c>
@@ -930,7 +941,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
@@ -940,23 +951,27 @@
       <c r="C16" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="E16" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:5" s="2" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="3" t="s">
+      <c r="D17" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>38</v>
       </c>
     </row>

--- a/Anforderungen.xlsx
+++ b/Anforderungen.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="101">
   <si>
     <t>Feature</t>
   </si>
@@ -310,6 +310,18 @@
   </si>
   <si>
     <t>Ich möchte nicht vergessen was ich in den kommenden Tagen/Wochen brauche, deswegen soll ich in der Lage sein dass ich die Artikel mir schon vorher merken kann.</t>
+  </si>
+  <si>
+    <t>Ich möchte benachrichtigt werden, wenn die Artikel, die ich ausleihen möchte frei gestaltet wird.</t>
+  </si>
+  <si>
+    <t>ich möchte wissen, wie ich den Verleiher erreichen kann, falls ich die Artikel von ihm/ihr direkt abholen muss.</t>
+  </si>
+  <si>
+    <t>Der Verleiher wird durch Geo Location lokaliziert.</t>
+  </si>
+  <si>
+    <t>Der nutzer bekommt nachrichten über Artikeln.</t>
   </si>
 </sst>
 </file>
@@ -678,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D18:D19"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -928,15 +940,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="E15" s="3" t="s">
         <v>38</v>
       </c>
@@ -975,15 +991,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="E18" t="s">
         <v>38</v>
       </c>

--- a/Anforderungen.xlsx
+++ b/Anforderungen.xlsx
@@ -4,22 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18516" windowHeight="4944"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18510" windowHeight="4950"/>
   </bookViews>
   <sheets>
     <sheet name="Funktionale Anforderungen" sheetId="1" r:id="rId1"/>
     <sheet name="Nichtfunktionale Anforderungen" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Funktionale Anforderungen'!$A$1:$E$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Funktionale Anforderungen'!$A$1:$F$22</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="105">
   <si>
     <t>Feature</t>
   </si>
@@ -174,9 +173,6 @@
     <t>Als Nutzer möchte ich meine persönlichen Informationen angeben und die anderer Nutzer einsehen können, um schneller eine Transaktion ausführen zu können.</t>
   </si>
   <si>
-    <t>Als Nutzer möchte ich Produkte melden können</t>
-  </si>
-  <si>
     <t>Als Nutzer möchte ich Benutzer melden können, um im Falle eines Verstoßes gegen den Verhaltenskodex diesen Nutzer bestrafen zu lassen, damit alle ein positives Erlebnis mit der Anwendung haben</t>
   </si>
   <si>
@@ -225,9 +221,6 @@
     <t>Jeder User bekommt einen Eigenen Account in dem die wichtigsten Inos über Ihn stehen.</t>
   </si>
   <si>
-    <t>Bei der ersten Anmeldung muss ein Account angelegt werden, der aus Name, PWD und andere wichtige Infos besteht. Man kann sich an- und abmelden und sein Profil nachträglich bearbeiten.</t>
-  </si>
-  <si>
     <t>Verfügbaren Gegenstände können ausgeliehen werden</t>
   </si>
   <si>
@@ -322,6 +315,24 @@
   </si>
   <si>
     <t>Der nutzer bekommt nachrichten über Artikeln.</t>
+  </si>
+  <si>
+    <t>Als Ausleihender möchte ich eine Statusanzeige um zu erkennen ob der gewünscht Gegenstand verfügbar ist. Als Verleihender möchte ich eine Statusanzeige um Dinge die ich zurzeit selbst benötige vom Verleih auszuschließen</t>
+  </si>
+  <si>
+    <t>Anzeige ob Produkt verfügbar oder nicht</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Bei der ersten Anmeldung muss ein Account angelegt werden, der aus Benutzernamen Namen, Adresse, Alter Handynummer(freiwillig) und E-Mail Adresse. Man kann sich an- und abmelden und sein Profil nachträglich bearbeiten. Im Profil kann eingestellt werden welche Daten öffentlich einsehbar sind</t>
+  </si>
+  <si>
+    <t>Als Nutzer möchte ich Produkte melden können, die illegal sind oder sinnlos sind</t>
+  </si>
+  <si>
+    <t>Produktbild hinzufügen</t>
   </si>
 </sst>
 </file>
@@ -688,21 +699,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="48.6640625" customWidth="1"/>
-    <col min="4" max="4" width="57.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="2" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="48.7109375" customWidth="1"/>
+    <col min="5" max="5" width="57.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -710,374 +721,401 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="C8" s="3"/>
       <c r="D8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>91</v>
-      </c>
+      <c r="C14" s="3"/>
       <c r="D14" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>100</v>
-      </c>
+      <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="C16" s="3"/>
       <c r="D16" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="2" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="2" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="E21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="E22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
         <v>39</v>
       </c>
     </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E22"/>
+  <autoFilter ref="A1:F22"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1091,15 +1129,15 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.88671875" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="65.33203125" customWidth="1"/>
-    <col min="4" max="4" width="37.33203125" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="65.28515625" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1116,7 +1154,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1127,13 +1165,13 @@
         <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1144,13 +1182,13 @@
         <v>47</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1161,13 +1199,13 @@
         <v>48</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1175,16 +1213,16 @@
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1192,16 +1230,16 @@
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1209,16 +1247,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1226,10 +1264,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E8" t="s">
         <v>37</v>
@@ -1243,10 +1281,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E9" t="s">
         <v>37</v>

--- a/Anforderungen.xlsx
+++ b/Anforderungen.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="107">
   <si>
     <t>Feature</t>
   </si>
@@ -323,9 +323,6 @@
     <t>Anzeige ob Produkt verfügbar oder nicht</t>
   </si>
   <si>
-    <t>Version</t>
-  </si>
-  <si>
     <t>Bei der ersten Anmeldung muss ein Account angelegt werden, der aus Benutzernamen Namen, Adresse, Alter Handynummer(freiwillig) und E-Mail Adresse. Man kann sich an- und abmelden und sein Profil nachträglich bearbeiten. Im Profil kann eingestellt werden welche Daten öffentlich einsehbar sind</t>
   </si>
   <si>
@@ -333,6 +330,15 @@
   </si>
   <si>
     <t>Produktbild hinzufügen</t>
+  </si>
+  <si>
+    <t>Release</t>
+  </si>
+  <si>
+    <t>Zu jedem auszuleihenden Produkt ein Bild hinzufügen</t>
+  </si>
+  <si>
+    <t>Als Nutzer möchte ich jedem Produkt das ich verleihe ein oder mehrere Bilder hinzufügen um den anderen Benutzern eine bessere Vorstellung des Gegenstandes zu ermöglichen</t>
   </si>
 </sst>
 </file>
@@ -701,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,7 +727,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -781,7 +787,7 @@
         <v>66</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>35</v>
@@ -1083,7 +1089,7 @@
         <v>44</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F21" t="s">
         <v>39</v>
@@ -1106,12 +1112,21 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B23" t="s">
         <v>76</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
